--- a/summary_report.xlsx
+++ b/summary_report.xlsx
@@ -1,31 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Chemistry Data Pooling\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5CDC865-A1A0-4007-8F4B-FCDA0CD2DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="density_stations__Density Cubes" sheetId="1" r:id="rId1"/>
     <sheet name="density_stations__Density Cub_1" sheetId="2" r:id="rId2"/>
     <sheet name="density_stations__Density Cub_2" sheetId="3" r:id="rId3"/>
     <sheet name="density_stations__Reaction Time" sheetId="4" r:id="rId4"/>
-    <sheet name="rubberstopper__Sheet1_values" sheetId="5" r:id="rId5"/>
-    <sheet name="rubberstopper__Sheet1_summary" sheetId="6" r:id="rId6"/>
-    <sheet name="overall_summary" sheetId="7" r:id="rId7"/>
+    <sheet name="rubberstopper__Sheet1_summary" sheetId="6" r:id="rId5"/>
+    <sheet name="overall_summary" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="27">
   <si>
     <t>value</t>
-  </si>
-  <si>
-    <t>per_point_uncert</t>
   </si>
   <si>
     <t>metric</t>
@@ -109,8 +111,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,13 +175,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -217,7 +227,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -251,6 +261,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -285,9 +296,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -460,144 +472,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2.9933846153846151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>2.993384615384615</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0.32884711200940042</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.3288471120094004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>9.1205778779857152E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.09120577877985715</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
       </c>
       <c r="B6">
         <v>1.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>4.6153846153846163E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0.04615384615384616</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>9.1205778779857152E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0.09120577877985715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0.43847114436920981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0.4384711443692098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0.44785649322889659</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0.4478564932288966</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>14.961541892315511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
-      </c>
-      <c r="B12">
-        <v>14.96154189231551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
       </c>
       <c r="B13">
         <v>2.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>2.83</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2.8279999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
-      </c>
-      <c r="B16">
-        <v>2.828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>18</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -609,147 +626,152 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>9.2949999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>9.295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
       </c>
       <c r="B4">
         <v>0.8529895358873596</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>0.23657673146739269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.2365767314673927</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
       </c>
       <c r="B6">
         <v>3.600000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0.1384615384615385</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0.23657673146739269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0.2365767314673927</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0.21656087160683279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0.2165608716068328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0.32072910841223312</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0.3207291084122331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>3.4505552276732989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
-      </c>
-      <c r="B12">
-        <v>3.450555227673299</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
       </c>
       <c r="B13">
         <v>6.7</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>10.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15">
         <v>9.44</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16">
         <v>9.4</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17">
-        <v>9.454700000000001</v>
+        <v>9.4547000000000008</v>
       </c>
     </row>
   </sheetData>
@@ -758,147 +780,152 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>9.0786083333333352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
-        <v>9.078608333333335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0.42859930101825111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.4285993010182511</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
       </c>
       <c r="B5">
         <v>0.1237259609086864</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>1.7196</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>7.1649999999999991E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.07164999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
       </c>
       <c r="B8">
         <v>0.1237259609086864</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>0.14656720112100269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0.1465672011210027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>0.19180734565501459</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>0.1918073456550146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B12">
+        <v>2.1127395148303521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>13</v>
-      </c>
-      <c r="B12">
-        <v>2.112739514830352</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
       </c>
       <c r="B13">
         <v>8.5404</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14">
         <v>10.26</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>9.0729000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>9.072900000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>8.9549999999999983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>8.954999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
       <c r="B17">
-        <v>9.1075</v>
+        <v>9.1074999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -907,147 +934,152 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>2.004</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>4.6586561284427272E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.04658656128442727</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>1.2450782225305299E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0.0124507822253053</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="B6">
+        <v>0.15100000000000019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0.1510000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="B7">
+        <v>5.3928571428571506E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0.005392857142857151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+      <c r="B8">
+        <v>1.2450782225305299E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>0.0124507822253053</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B10">
+        <v>7.1723071459550841E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>0.07172307145955084</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B11">
+        <v>7.2795748211099631E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>12</v>
-      </c>
-      <c r="B11">
-        <v>0.07279574821109963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>13</v>
       </c>
       <c r="B12">
         <v>3.632522365823335</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13">
         <v>1.94</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>2.0910000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>2.091</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15">
+        <v>2.0002499999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>2.00025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="B16">
+        <v>1.9710000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
-        <v>1.971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
       <c r="B17">
-        <v>2.019375</v>
+        <v>2.0193750000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1056,125 +1088,152 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1.513571428571429</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0.21190009049466771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>5.6632681346959993E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>0.79999999999999982</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2.857142857142856E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>5.6632681346959993E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>34.041355567733923</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>34.041402675998611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>2249.0780437186431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>1.595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1.325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17">
         <v>1.6</v>
-      </c>
-      <c r="B2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1.1</v>
-      </c>
-      <c r="B3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1.59</v>
-      </c>
-      <c r="B4">
-        <v>82.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1.9</v>
-      </c>
-      <c r="B5">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1.29</v>
-      </c>
-      <c r="B6">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>1.71</v>
-      </c>
-      <c r="B7">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>1.6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1.4</v>
-      </c>
-      <c r="B9">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>1.5</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1.3</v>
-      </c>
-      <c r="B11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>1.6</v>
-      </c>
-      <c r="B12">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1.7</v>
-      </c>
-      <c r="B13">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1.3</v>
       </c>
     </row>
   </sheetData>
@@ -1183,245 +1242,101 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>1.513571428571429</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.2119000904946677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.05663268134695999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.7999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.02857142857142856</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.05663268134695999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>34.04135556773392</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>34.04140267599861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>2249.078043718643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>1.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>1.595</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>1.325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>1.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="6" width="26.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>23</v>
       </c>
       <c r="B2">
         <v>13</v>
       </c>
       <c r="C2">
-        <v>2.993384615384615</v>
+        <v>2.9933846153846151</v>
       </c>
       <c r="D2">
-        <v>0.4478564932288966</v>
+        <v>0.44785649322889659</v>
       </c>
       <c r="E2">
-        <v>14.96154189231551</v>
+        <v>14.961541892315511</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>9.295</v>
+        <v>9.2949999999999999</v>
       </c>
       <c r="D3">
-        <v>0.3207291084122331</v>
+        <v>0.32072910841223312</v>
       </c>
       <c r="E3">
-        <v>3.450555227673299</v>
+        <v>3.4505552276732989</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
       <c r="C4">
-        <v>9.078608333333335</v>
+        <v>9.0786083333333352</v>
       </c>
       <c r="D4">
-        <v>0.1918073456550146</v>
+        <v>0.19180734565501459</v>
       </c>
       <c r="E4">
-        <v>2.112739514830352</v>
+        <v>2.1127395148303521</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>14</v>
@@ -1430,18 +1345,18 @@
         <v>2.004</v>
       </c>
       <c r="D5">
-        <v>0.07279574821109963</v>
+        <v>7.2795748211099631E-2</v>
       </c>
       <c r="E5">
         <v>3.632522365823335</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>14</v>
@@ -1450,13 +1365,13 @@
         <v>1.513571428571429</v>
       </c>
       <c r="D6">
-        <v>34.04140267599861</v>
+        <v>34.041402675998611</v>
       </c>
       <c r="E6">
-        <v>2249.078043718643</v>
+        <v>2249.0780437186431</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
